--- a/TV5 Documents/MoneyTor_Project_Plan.xlsx
+++ b/TV5 Documents/MoneyTor_Project_Plan.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7920" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7920" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Revision Sheet" sheetId="1" r:id="rId1"/>
@@ -123,7 +123,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="255">
   <si>
     <t>Project Name</t>
   </si>
@@ -936,6 +936,9 @@
   </si>
   <si>
     <t>Trisha Jean Lim (limtrishajean@gmail.com)</t>
+  </si>
+  <si>
+    <t>GT</t>
   </si>
 </sst>
 </file>
@@ -2080,6 +2083,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="27" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2089,6 +2119,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2113,6 +2146,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2143,18 +2185,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -2164,29 +2221,20 @@
     <xf numFmtId="49" fontId="19" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -2194,21 +2242,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2218,49 +2251,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="27" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -2797,10 +2800,10 @@
       <c r="C6" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="108" t="s">
+      <c r="D6" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="108"/>
+      <c r="E6" s="117"/>
       <c r="F6" s="88" t="s">
         <v>6</v>
       </c>
@@ -2815,10 +2818,10 @@
       <c r="C7" s="90">
         <v>40207</v>
       </c>
-      <c r="D7" s="107" t="s">
+      <c r="D7" s="116" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="107"/>
+      <c r="E7" s="116"/>
       <c r="F7" s="91" t="s">
         <v>9</v>
       </c>
@@ -2833,10 +2836,10 @@
       <c r="C8" s="90">
         <v>40220</v>
       </c>
-      <c r="D8" s="107" t="s">
+      <c r="D8" s="116" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="107"/>
+      <c r="E8" s="116"/>
       <c r="F8" s="91" t="s">
         <v>12</v>
       </c>
@@ -2851,10 +2854,10 @@
       <c r="C9" s="90">
         <v>40242</v>
       </c>
-      <c r="D9" s="107" t="s">
+      <c r="D9" s="116" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="107"/>
+      <c r="E9" s="116"/>
       <c r="F9" s="91" t="s">
         <v>12</v>
       </c>
@@ -2865,24 +2868,24 @@
     <row r="10" spans="2:7">
       <c r="B10" s="41"/>
       <c r="C10" s="90"/>
-      <c r="D10" s="107"/>
-      <c r="E10" s="107"/>
+      <c r="D10" s="116"/>
+      <c r="E10" s="116"/>
       <c r="F10" s="41"/>
       <c r="G10" s="41"/>
     </row>
     <row r="11" spans="2:7">
       <c r="B11" s="41"/>
       <c r="C11" s="41"/>
-      <c r="D11" s="107"/>
-      <c r="E11" s="107"/>
+      <c r="D11" s="116"/>
+      <c r="E11" s="116"/>
       <c r="F11" s="41"/>
       <c r="G11" s="41"/>
     </row>
     <row r="12" spans="2:7">
       <c r="B12" s="41"/>
       <c r="C12" s="41"/>
-      <c r="D12" s="107"/>
-      <c r="E12" s="107"/>
+      <c r="D12" s="116"/>
+      <c r="E12" s="116"/>
       <c r="F12" s="41"/>
       <c r="G12" s="41"/>
     </row>
@@ -2917,7 +2920,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -2964,34 +2967,34 @@
       <c r="E6" s="21"/>
     </row>
     <row r="7" spans="2:5" ht="16.350000000000001" customHeight="1">
-      <c r="B7" s="111" t="s">
+      <c r="B7" s="121" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="111"/>
+      <c r="C7" s="121"/>
       <c r="D7" s="76" t="s">
         <v>17</v>
       </c>
       <c r="E7" s="35"/>
     </row>
     <row r="8" spans="2:5" ht="16.350000000000001" customHeight="1">
-      <c r="B8" s="111"/>
-      <c r="C8" s="111"/>
+      <c r="B8" s="121"/>
+      <c r="C8" s="121"/>
       <c r="D8" s="77" t="s">
         <v>18</v>
       </c>
       <c r="E8" s="56"/>
     </row>
     <row r="9" spans="2:5" ht="14.85" customHeight="1">
-      <c r="B9" s="111"/>
-      <c r="C9" s="111"/>
+      <c r="B9" s="121"/>
+      <c r="C9" s="121"/>
       <c r="D9" s="77" t="s">
         <v>19</v>
       </c>
       <c r="E9" s="56"/>
     </row>
     <row r="10" spans="2:5">
-      <c r="B10" s="111"/>
-      <c r="C10" s="111"/>
+      <c r="B10" s="121"/>
+      <c r="C10" s="121"/>
       <c r="D10" s="78" t="s">
         <v>20</v>
       </c>
@@ -3002,18 +3005,18 @@
         <v>21</v>
       </c>
       <c r="C11" s="6"/>
-      <c r="D11" s="109"/>
-      <c r="E11" s="109"/>
+      <c r="D11" s="118"/>
+      <c r="E11" s="118"/>
     </row>
     <row r="12" spans="2:5">
       <c r="B12" s="77"/>
       <c r="C12" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="166" t="s">
+      <c r="D12" s="119" t="s">
         <v>253</v>
       </c>
-      <c r="E12" s="110"/>
+      <c r="E12" s="120"/>
     </row>
     <row r="13" spans="2:5">
       <c r="B13" s="77"/>
@@ -3021,7 +3024,7 @@
         <v>23</v>
       </c>
       <c r="D13" s="80"/>
-      <c r="E13" s="167" t="s">
+      <c r="E13" s="115" t="s">
         <v>249</v>
       </c>
     </row>
@@ -3029,7 +3032,7 @@
       <c r="B14" s="77"/>
       <c r="C14" s="6"/>
       <c r="D14" s="80"/>
-      <c r="E14" s="167" t="s">
+      <c r="E14" s="115" t="s">
         <v>250</v>
       </c>
     </row>
@@ -3037,7 +3040,7 @@
       <c r="B15" s="77"/>
       <c r="C15" s="6"/>
       <c r="D15" s="80"/>
-      <c r="E15" s="167" t="s">
+      <c r="E15" s="115" t="s">
         <v>251</v>
       </c>
     </row>
@@ -3321,51 +3324,51 @@
       <c r="B6" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="113" t="s">
+      <c r="C6" s="123" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="113"/>
-      <c r="E6" s="113"/>
+      <c r="D6" s="123"/>
+      <c r="E6" s="123"/>
     </row>
     <row r="7" spans="2:6" ht="12.75" customHeight="1">
       <c r="B7" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="114" t="s">
+      <c r="C7" s="124" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="114"/>
-      <c r="E7" s="114"/>
+      <c r="D7" s="124"/>
+      <c r="E7" s="124"/>
     </row>
     <row r="8" spans="2:6">
       <c r="B8" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="115" t="s">
+      <c r="C8" s="125" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="115"/>
-      <c r="E8" s="115"/>
+      <c r="D8" s="125"/>
+      <c r="E8" s="125"/>
     </row>
     <row r="9" spans="2:6">
       <c r="B9" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="115" t="s">
+      <c r="C9" s="125" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="115"/>
-      <c r="E9" s="115"/>
+      <c r="D9" s="125"/>
+      <c r="E9" s="125"/>
     </row>
     <row r="10" spans="2:6">
       <c r="B10" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="116" t="s">
+      <c r="C10" s="126" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="116"/>
-      <c r="E10" s="116"/>
+      <c r="D10" s="126"/>
+      <c r="E10" s="126"/>
     </row>
     <row r="12" spans="2:6">
       <c r="B12" s="4" t="s">
@@ -3380,11 +3383,11 @@
       <c r="B13" s="65" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="117" t="s">
+      <c r="C13" s="127" t="s">
         <v>56</v>
       </c>
-      <c r="D13" s="117"/>
-      <c r="E13" s="117"/>
+      <c r="D13" s="127"/>
+      <c r="E13" s="127"/>
     </row>
     <row r="15" spans="2:6">
       <c r="B15" s="39" t="s">
@@ -3395,10 +3398,10 @@
       <c r="E15" s="6"/>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="112" t="s">
+      <c r="B16" s="122" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="112"/>
+      <c r="C16" s="122"/>
       <c r="D16" s="67" t="s">
         <v>59</v>
       </c>
@@ -3487,7 +3490,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G35"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A51" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A31" workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
@@ -3539,7 +3542,7 @@
       <c r="C6" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="D6" s="165" t="s">
+      <c r="D6" s="114" t="s">
         <v>247</v>
       </c>
       <c r="E6" s="93"/>
@@ -3551,7 +3554,7 @@
       <c r="C7" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="165" t="s">
+      <c r="D7" s="114" t="s">
         <v>248</v>
       </c>
       <c r="E7" s="93"/>
@@ -3563,7 +3566,7 @@
       <c r="C8" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="D8" s="165" t="s">
+      <c r="D8" s="114" t="s">
         <v>249</v>
       </c>
       <c r="E8" s="93"/>
@@ -3575,7 +3578,7 @@
       <c r="C9" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="D9" s="165" t="s">
+      <c r="D9" s="114" t="s">
         <v>250</v>
       </c>
       <c r="E9" s="93"/>
@@ -3587,7 +3590,7 @@
       <c r="C10" s="46" t="s">
         <v>106</v>
       </c>
-      <c r="D10" s="165" t="s">
+      <c r="D10" s="114" t="s">
         <v>251</v>
       </c>
       <c r="E10" s="93"/>
@@ -3599,7 +3602,7 @@
       <c r="C11" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="D11" s="165" t="s">
+      <c r="D11" s="114" t="s">
         <v>252</v>
       </c>
       <c r="E11" s="93"/>
@@ -3611,22 +3614,22 @@
       <c r="C12" s="129" t="s">
         <v>77</v>
       </c>
-      <c r="D12" s="125" t="s">
+      <c r="D12" s="138" t="s">
         <v>80</v>
       </c>
-      <c r="E12" s="124"/>
+      <c r="E12" s="137"/>
     </row>
     <row r="13" spans="2:7">
       <c r="B13" s="128"/>
       <c r="C13" s="129"/>
-      <c r="D13" s="126"/>
-      <c r="E13" s="124"/>
+      <c r="D13" s="139"/>
+      <c r="E13" s="137"/>
     </row>
     <row r="14" spans="2:7">
       <c r="B14" s="128"/>
       <c r="C14" s="129"/>
-      <c r="D14" s="127"/>
-      <c r="E14" s="124"/>
+      <c r="D14" s="140"/>
+      <c r="E14" s="137"/>
     </row>
     <row r="15" spans="2:7">
       <c r="B15" s="47" t="s">
@@ -3635,16 +3638,16 @@
       <c r="C15" s="48" t="s">
         <v>79</v>
       </c>
-      <c r="D15" s="125" t="s">
+      <c r="D15" s="138" t="s">
         <v>80</v>
       </c>
-      <c r="E15" s="124"/>
+      <c r="E15" s="137"/>
     </row>
     <row r="16" spans="2:7">
       <c r="B16" s="24"/>
       <c r="C16" s="25"/>
-      <c r="D16" s="127"/>
-      <c r="E16" s="124"/>
+      <c r="D16" s="140"/>
+      <c r="E16" s="137"/>
     </row>
     <row r="17" spans="2:7" ht="16.5" customHeight="1">
       <c r="E17" s="6"/>
@@ -3700,12 +3703,12 @@
     <row r="21" spans="2:7" ht="15" customHeight="1">
       <c r="B21" s="55"/>
       <c r="C21" s="56"/>
-      <c r="D21" s="118" t="s">
+      <c r="D21" s="131" t="s">
         <v>91</v>
       </c>
-      <c r="E21" s="119"/>
-      <c r="F21" s="119"/>
-      <c r="G21" s="120"/>
+      <c r="E21" s="132"/>
+      <c r="F21" s="132"/>
+      <c r="G21" s="133"/>
     </row>
     <row r="22" spans="2:7" ht="202.9" customHeight="1">
       <c r="B22" s="57"/>
@@ -3728,12 +3731,12 @@
     <row r="23" spans="2:7" ht="18" customHeight="1">
       <c r="B23" s="55"/>
       <c r="C23" s="56"/>
-      <c r="D23" s="118" t="s">
+      <c r="D23" s="131" t="s">
         <v>96</v>
       </c>
-      <c r="E23" s="119"/>
-      <c r="F23" s="119"/>
-      <c r="G23" s="120"/>
+      <c r="E23" s="132"/>
+      <c r="F23" s="132"/>
+      <c r="G23" s="133"/>
     </row>
     <row r="24" spans="2:7" ht="137.25" customHeight="1">
       <c r="B24" s="52" t="s">
@@ -3758,12 +3761,12 @@
     <row r="25" spans="2:7" ht="18" customHeight="1">
       <c r="B25" s="55"/>
       <c r="C25" s="56"/>
-      <c r="D25" s="118" t="s">
+      <c r="D25" s="131" t="s">
         <v>96</v>
       </c>
-      <c r="E25" s="119"/>
-      <c r="F25" s="119"/>
-      <c r="G25" s="120"/>
+      <c r="E25" s="132"/>
+      <c r="F25" s="132"/>
+      <c r="G25" s="133"/>
     </row>
     <row r="26" spans="2:7" ht="60">
       <c r="B26" s="52" t="s">
@@ -3788,12 +3791,12 @@
     <row r="27" spans="2:7" ht="12.75" customHeight="1">
       <c r="B27" s="55"/>
       <c r="C27" s="56"/>
-      <c r="D27" s="118" t="s">
+      <c r="D27" s="131" t="s">
         <v>105</v>
       </c>
-      <c r="E27" s="119"/>
-      <c r="F27" s="119"/>
-      <c r="G27" s="120"/>
+      <c r="E27" s="132"/>
+      <c r="F27" s="132"/>
+      <c r="G27" s="133"/>
     </row>
     <row r="28" spans="2:7" ht="225">
       <c r="B28" s="52" t="s">
@@ -3818,12 +3821,12 @@
     <row r="29" spans="2:7" ht="12.75" customHeight="1">
       <c r="B29" s="58"/>
       <c r="C29" s="59"/>
-      <c r="D29" s="118" t="s">
+      <c r="D29" s="131" t="s">
         <v>107</v>
       </c>
-      <c r="E29" s="119"/>
-      <c r="F29" s="119"/>
-      <c r="G29" s="120"/>
+      <c r="E29" s="132"/>
+      <c r="F29" s="132"/>
+      <c r="G29" s="133"/>
     </row>
     <row r="30" spans="2:7" ht="135.75" customHeight="1">
       <c r="B30" s="52" t="s">
@@ -3849,11 +3852,11 @@
       <c r="B31" s="55"/>
       <c r="C31" s="56"/>
       <c r="D31" s="56"/>
-      <c r="E31" s="120" t="s">
+      <c r="E31" s="133" t="s">
         <v>111</v>
       </c>
-      <c r="F31" s="120"/>
-      <c r="G31" s="120"/>
+      <c r="F31" s="133"/>
+      <c r="G31" s="133"/>
     </row>
     <row r="32" spans="2:7" ht="135.75" customHeight="1">
       <c r="B32" s="52" t="s">
@@ -3878,12 +3881,12 @@
     <row r="33" spans="2:7" ht="12.75" customHeight="1">
       <c r="B33" s="55"/>
       <c r="C33" s="56"/>
-      <c r="D33" s="118" t="s">
+      <c r="D33" s="131" t="s">
         <v>116</v>
       </c>
-      <c r="E33" s="119"/>
-      <c r="F33" s="119"/>
-      <c r="G33" s="120"/>
+      <c r="E33" s="132"/>
+      <c r="F33" s="132"/>
+      <c r="G33" s="133"/>
     </row>
     <row r="34" spans="2:7" ht="176.1" customHeight="1">
       <c r="B34" s="52" t="s">
@@ -3908,12 +3911,12 @@
     <row r="35" spans="2:7" ht="12.75" customHeight="1">
       <c r="B35" s="60"/>
       <c r="C35" s="61"/>
-      <c r="D35" s="121" t="s">
+      <c r="D35" s="134" t="s">
         <v>121</v>
       </c>
-      <c r="E35" s="122"/>
-      <c r="F35" s="122"/>
-      <c r="G35" s="123"/>
+      <c r="E35" s="135"/>
+      <c r="F35" s="135"/>
+      <c r="G35" s="136"/>
     </row>
   </sheetData>
   <customSheetViews>
@@ -3950,10 +3953,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C22"/>
+  <dimension ref="B2:E22"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15"/>
@@ -3967,7 +3970,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" ht="23.25">
-      <c r="B2" s="158" t="s">
+      <c r="B2" s="107" t="s">
         <v>236</v>
       </c>
       <c r="C2" s="37"/>
@@ -3993,114 +3996,117 @@
       </c>
     </row>
     <row r="8" spans="2:3">
-      <c r="B8" s="162" t="s">
+      <c r="B8" s="111" t="s">
         <v>246</v>
       </c>
-      <c r="C8" s="163">
+      <c r="C8" s="112">
         <v>180000</v>
       </c>
     </row>
     <row r="9" spans="2:3">
-      <c r="B9" s="159" t="s">
+      <c r="B9" s="108" t="s">
         <v>245</v>
       </c>
-      <c r="C9" s="163">
+      <c r="C9" s="112">
         <v>3000</v>
       </c>
     </row>
     <row r="10" spans="2:3">
-      <c r="B10" s="159" t="s">
+      <c r="B10" s="108" t="s">
         <v>244</v>
       </c>
-      <c r="C10" s="163">
+      <c r="C10" s="112">
         <v>5000</v>
       </c>
     </row>
     <row r="11" spans="2:3">
-      <c r="B11" s="159" t="s">
+      <c r="B11" s="108" t="s">
         <v>243</v>
       </c>
-      <c r="C11" s="163">
+      <c r="C11" s="112">
         <v>20000</v>
       </c>
     </row>
     <row r="12" spans="2:3">
-      <c r="B12" s="159" t="s">
+      <c r="B12" s="108" t="s">
         <v>126</v>
       </c>
-      <c r="C12" s="163">
+      <c r="C12" s="112">
         <v>500</v>
       </c>
     </row>
     <row r="13" spans="2:3">
-      <c r="B13" s="159" t="s">
+      <c r="B13" s="108" t="s">
         <v>127</v>
       </c>
-      <c r="C13" s="163">
+      <c r="C13" s="112">
         <v>20</v>
       </c>
     </row>
     <row r="14" spans="2:3">
-      <c r="B14" s="159" t="s">
+      <c r="B14" s="108" t="s">
         <v>125</v>
       </c>
-      <c r="C14" s="163"/>
+      <c r="C14" s="112"/>
     </row>
     <row r="15" spans="2:3">
-      <c r="B15" s="159" t="s">
+      <c r="B15" s="108" t="s">
         <v>238</v>
       </c>
-      <c r="C15" s="163">
+      <c r="C15" s="112">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:3">
-      <c r="B16" s="159" t="s">
+      <c r="B16" s="108" t="s">
         <v>239</v>
       </c>
-      <c r="C16" s="163">
+      <c r="C16" s="112">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:3">
-      <c r="B17" s="159" t="s">
+    <row r="17" spans="2:5">
+      <c r="B17" s="108" t="s">
         <v>240</v>
       </c>
-      <c r="C17" s="163"/>
-    </row>
-    <row r="18" spans="2:3">
-      <c r="B18" s="160" t="s">
+      <c r="C17" s="112"/>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" s="109" t="s">
         <v>235</v>
       </c>
-      <c r="C18" s="164">
+      <c r="C18" s="113">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="2:3">
-      <c r="B19" s="160" t="s">
+      <c r="E18" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" s="109" t="s">
         <v>241</v>
       </c>
-      <c r="C19" s="164">
+      <c r="C19" s="113">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:3">
-      <c r="B20" s="160" t="s">
+    <row r="20" spans="2:5">
+      <c r="B20" s="109" t="s">
         <v>242</v>
       </c>
-      <c r="C20" s="164">
+      <c r="C20" s="113">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:3">
-      <c r="B21" s="161" t="s">
+    <row r="21" spans="2:5">
+      <c r="B21" s="110" t="s">
         <v>237</v>
       </c>
-      <c r="C21" s="164">
+      <c r="C21" s="113">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:3">
+    <row r="22" spans="2:5">
       <c r="B22" s="42" t="s">
         <v>128</v>
       </c>
@@ -4170,66 +4176,66 @@
       <c r="B6" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="C6" s="131" t="s">
+      <c r="C6" s="148" t="s">
         <v>224</v>
       </c>
-      <c r="D6" s="131"/>
+      <c r="D6" s="148"/>
       <c r="E6" s="17"/>
     </row>
     <row r="7" spans="2:5">
       <c r="B7" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="C7" s="132" t="s">
+      <c r="C7" s="150" t="s">
         <v>132</v>
       </c>
-      <c r="D7" s="132"/>
+      <c r="D7" s="150"/>
       <c r="E7" s="17"/>
     </row>
     <row r="8" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B8" s="139" t="s">
+      <c r="B8" s="145" t="s">
         <v>133</v>
       </c>
-      <c r="C8" s="133" t="s">
+      <c r="C8" s="151" t="s">
         <v>134</v>
       </c>
-      <c r="D8" s="133"/>
+      <c r="D8" s="151"/>
       <c r="E8" s="17"/>
     </row>
     <row r="9" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B9" s="140"/>
-      <c r="C9" s="134" t="s">
+      <c r="B9" s="146"/>
+      <c r="C9" s="152" t="s">
         <v>135</v>
       </c>
-      <c r="D9" s="134"/>
+      <c r="D9" s="152"/>
       <c r="E9" s="17"/>
     </row>
     <row r="10" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B10" s="140"/>
-      <c r="C10" s="134" t="s">
+      <c r="B10" s="146"/>
+      <c r="C10" s="152" t="s">
         <v>136</v>
       </c>
-      <c r="D10" s="134"/>
+      <c r="D10" s="152"/>
       <c r="E10" s="17"/>
     </row>
     <row r="11" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B11" s="140"/>
-      <c r="C11" s="142" t="s">
+      <c r="B11" s="146"/>
+      <c r="C11" s="149" t="s">
         <v>137</v>
       </c>
-      <c r="D11" s="142"/>
+      <c r="D11" s="149"/>
       <c r="E11" s="17"/>
     </row>
     <row r="12" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B12" s="140"/>
-      <c r="C12" s="142" t="s">
+      <c r="B12" s="146"/>
+      <c r="C12" s="149" t="s">
         <v>223</v>
       </c>
-      <c r="D12" s="142"/>
+      <c r="D12" s="149"/>
       <c r="E12" s="17"/>
     </row>
     <row r="13" spans="2:5">
-      <c r="B13" s="141" t="s">
+      <c r="B13" s="147" t="s">
         <v>138</v>
       </c>
       <c r="C13" s="20" t="s">
@@ -4241,7 +4247,7 @@
       <c r="E13" s="17"/>
     </row>
     <row r="14" spans="2:5" ht="46.5" customHeight="1">
-      <c r="B14" s="141"/>
+      <c r="B14" s="147"/>
       <c r="C14" s="22"/>
       <c r="D14" s="23" t="s">
         <v>141</v>
@@ -4249,7 +4255,7 @@
       <c r="E14" s="17"/>
     </row>
     <row r="15" spans="2:5" ht="72" customHeight="1">
-      <c r="B15" s="141"/>
+      <c r="B15" s="147"/>
       <c r="C15" s="24" t="s">
         <v>142</v>
       </c>
@@ -4259,7 +4265,7 @@
       <c r="E15" s="17"/>
     </row>
     <row r="16" spans="2:5">
-      <c r="B16" s="131" t="s">
+      <c r="B16" s="148" t="s">
         <v>144</v>
       </c>
       <c r="C16" s="62" t="s">
@@ -4268,269 +4274,269 @@
       <c r="D16" s="96"/>
     </row>
     <row r="17" spans="2:4">
-      <c r="B17" s="131"/>
+      <c r="B17" s="148"/>
       <c r="C17" s="63"/>
       <c r="D17" s="97" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="18" spans="2:4">
-      <c r="B18" s="131"/>
-      <c r="C18" s="135" t="s">
+      <c r="B18" s="148"/>
+      <c r="C18" s="141" t="s">
         <v>147</v>
       </c>
-      <c r="D18" s="136" t="s">
+      <c r="D18" s="142" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="19" spans="2:4">
-      <c r="B19" s="131"/>
+      <c r="B19" s="148"/>
       <c r="C19" s="30"/>
       <c r="D19" s="98" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="20" spans="2:4">
-      <c r="B20" s="131"/>
+      <c r="B20" s="148"/>
       <c r="C20" s="30"/>
       <c r="D20" s="98" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="21" spans="2:4">
-      <c r="B21" s="131"/>
+      <c r="B21" s="148"/>
       <c r="C21" s="30" t="s">
         <v>151</v>
       </c>
       <c r="D21" s="98"/>
     </row>
     <row r="22" spans="2:4">
-      <c r="B22" s="131"/>
+      <c r="B22" s="148"/>
       <c r="C22" s="30"/>
       <c r="D22" s="98" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="23" spans="2:4">
-      <c r="B23" s="131"/>
+      <c r="B23" s="148"/>
       <c r="C23" s="30"/>
       <c r="D23" s="98" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="24" spans="2:4">
-      <c r="B24" s="131"/>
-      <c r="C24" s="135" t="s">
+      <c r="B24" s="148"/>
+      <c r="C24" s="141" t="s">
         <v>153</v>
       </c>
-      <c r="D24" s="136"/>
+      <c r="D24" s="142"/>
     </row>
     <row r="25" spans="2:4">
-      <c r="B25" s="131"/>
+      <c r="B25" s="148"/>
       <c r="C25" s="30"/>
       <c r="D25" s="98" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="26" spans="2:4">
-      <c r="B26" s="131"/>
+      <c r="B26" s="148"/>
       <c r="C26" s="30"/>
       <c r="D26" s="98" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="27" spans="2:4">
-      <c r="B27" s="131"/>
+      <c r="B27" s="148"/>
       <c r="C27" s="30"/>
       <c r="D27" s="98" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="28" spans="2:4">
-      <c r="B28" s="131"/>
+      <c r="B28" s="148"/>
       <c r="C28" s="30"/>
       <c r="D28" s="98" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="29" spans="2:4">
-      <c r="B29" s="131"/>
-      <c r="C29" s="135" t="s">
+      <c r="B29" s="148"/>
+      <c r="C29" s="141" t="s">
         <v>157</v>
       </c>
-      <c r="D29" s="136" t="s">
+      <c r="D29" s="142" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="30" spans="2:4">
-      <c r="B30" s="131"/>
+      <c r="B30" s="148"/>
       <c r="C30" s="30"/>
       <c r="D30" s="98" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="31" spans="2:4">
-      <c r="B31" s="131"/>
+      <c r="B31" s="148"/>
       <c r="C31" s="30"/>
       <c r="D31" s="98" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="32" spans="2:4">
-      <c r="B32" s="131"/>
+      <c r="B32" s="148"/>
       <c r="C32" s="30"/>
       <c r="D32" s="98" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="33" spans="2:4">
-      <c r="B33" s="131"/>
+      <c r="B33" s="148"/>
       <c r="C33" s="30"/>
       <c r="D33" s="98" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="34" spans="2:4">
-      <c r="B34" s="131"/>
-      <c r="C34" s="135" t="s">
+      <c r="B34" s="148"/>
+      <c r="C34" s="141" t="s">
         <v>162</v>
       </c>
-      <c r="D34" s="136"/>
+      <c r="D34" s="142"/>
     </row>
     <row r="35" spans="2:4">
-      <c r="B35" s="131"/>
+      <c r="B35" s="148"/>
       <c r="C35" s="30"/>
       <c r="D35" s="98" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="36" spans="2:4">
-      <c r="B36" s="131"/>
+      <c r="B36" s="148"/>
       <c r="C36" s="30"/>
       <c r="D36" s="98" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="37" spans="2:4">
-      <c r="B37" s="131"/>
+      <c r="B37" s="148"/>
       <c r="C37" s="30"/>
       <c r="D37" s="98" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="38" spans="2:4">
-      <c r="B38" s="131"/>
+      <c r="B38" s="148"/>
       <c r="C38" s="30"/>
       <c r="D38" s="98" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="39" spans="2:4">
-      <c r="B39" s="131"/>
-      <c r="C39" s="135" t="s">
+      <c r="B39" s="148"/>
+      <c r="C39" s="141" t="s">
         <v>167</v>
       </c>
-      <c r="D39" s="136" t="s">
+      <c r="D39" s="142" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="40" spans="2:4">
-      <c r="B40" s="131"/>
+      <c r="B40" s="148"/>
       <c r="C40" s="30"/>
       <c r="D40" s="98" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="41" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B41" s="131"/>
+      <c r="B41" s="148"/>
       <c r="C41" s="30"/>
       <c r="D41" s="98" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="42" spans="2:4">
-      <c r="B42" s="131"/>
+      <c r="B42" s="148"/>
       <c r="C42" s="30"/>
       <c r="D42" s="98" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="43" spans="2:4">
-      <c r="B43" s="131"/>
+      <c r="B43" s="148"/>
       <c r="C43" s="30"/>
       <c r="D43" s="98" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="44" spans="2:4">
-      <c r="B44" s="131"/>
+      <c r="B44" s="148"/>
       <c r="C44" s="30" t="s">
         <v>171</v>
       </c>
       <c r="D44" s="98"/>
     </row>
     <row r="45" spans="2:4">
-      <c r="B45" s="131"/>
+      <c r="B45" s="148"/>
       <c r="C45" s="30"/>
       <c r="D45" s="98" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="46" spans="2:4">
-      <c r="B46" s="131"/>
+      <c r="B46" s="148"/>
       <c r="C46" s="36"/>
       <c r="D46" s="99" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="47" spans="2:4">
-      <c r="B47" s="131"/>
+      <c r="B47" s="148"/>
       <c r="C47" s="36"/>
       <c r="D47" s="99" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="48" spans="2:4">
-      <c r="B48" s="131"/>
+      <c r="B48" s="148"/>
       <c r="C48" s="36"/>
       <c r="D48" s="99" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="49" spans="2:4">
-      <c r="B49" s="131"/>
-      <c r="C49" s="135" t="s">
+      <c r="B49" s="148"/>
+      <c r="C49" s="141" t="s">
         <v>176</v>
       </c>
-      <c r="D49" s="136" t="s">
+      <c r="D49" s="142" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="50" spans="2:4">
-      <c r="B50" s="131"/>
+      <c r="B50" s="148"/>
       <c r="C50" s="100"/>
       <c r="D50" s="101" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="51" spans="2:4">
-      <c r="B51" s="131"/>
+      <c r="B51" s="148"/>
       <c r="C51" s="30"/>
       <c r="D51" s="98" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="52" spans="2:4">
-      <c r="B52" s="131"/>
+      <c r="B52" s="148"/>
       <c r="C52" s="36"/>
       <c r="D52" s="102" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="53" spans="2:4">
-      <c r="B53" s="131"/>
-      <c r="C53" s="137"/>
-      <c r="D53" s="138" t="s">
+      <c r="B53" s="148"/>
+      <c r="C53" s="143"/>
+      <c r="D53" s="144" t="s">
         <v>148</v>
       </c>
     </row>
@@ -4627,6 +4633,11 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="17">
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
     <mergeCell ref="C49:D49"/>
     <mergeCell ref="C53:D53"/>
     <mergeCell ref="B8:B12"/>
@@ -4639,11 +4650,6 @@
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="C39:D39"/>
     <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
   </mergeCells>
   <pageMargins left="0.69930555555555551" right="0.69930555555555551" top="0.75" bottom="0.75" header="0.51111111111111107" footer="0.51111111111111107"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -4697,58 +4703,58 @@
       <c r="B6" s="18" t="s">
         <v>194</v>
       </c>
-      <c r="C6" s="131" t="s">
+      <c r="C6" s="148" t="s">
         <v>224</v>
       </c>
-      <c r="D6" s="131"/>
+      <c r="D6" s="148"/>
       <c r="E6" s="17"/>
     </row>
     <row r="7" spans="2:5">
       <c r="B7" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="C7" s="132" t="s">
+      <c r="C7" s="150" t="s">
         <v>132</v>
       </c>
-      <c r="D7" s="132"/>
+      <c r="D7" s="150"/>
       <c r="E7" s="17"/>
     </row>
     <row r="8" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B8" s="149" t="s">
+      <c r="B8" s="156" t="s">
         <v>195</v>
       </c>
-      <c r="C8" s="143" t="s">
+      <c r="C8" s="158" t="s">
         <v>196</v>
       </c>
-      <c r="D8" s="143"/>
+      <c r="D8" s="158"/>
       <c r="E8" s="17"/>
     </row>
     <row r="9" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B9" s="149"/>
-      <c r="C9" s="144" t="s">
+      <c r="B9" s="156"/>
+      <c r="C9" s="159" t="s">
         <v>197</v>
       </c>
-      <c r="D9" s="144"/>
+      <c r="D9" s="159"/>
       <c r="E9" s="17"/>
     </row>
     <row r="10" spans="2:5">
-      <c r="B10" s="149"/>
-      <c r="C10" s="145" t="s">
+      <c r="B10" s="156"/>
+      <c r="C10" s="157" t="s">
         <v>198</v>
       </c>
-      <c r="D10" s="145"/>
+      <c r="D10" s="157"/>
       <c r="E10" s="17"/>
     </row>
     <row r="11" spans="2:5">
-      <c r="B11" s="149"/>
-      <c r="C11" s="145" t="s">
+      <c r="B11" s="156"/>
+      <c r="C11" s="157" t="s">
         <v>199</v>
       </c>
-      <c r="D11" s="145"/>
+      <c r="D11" s="157"/>
       <c r="E11" s="17"/>
     </row>
     <row r="12" spans="2:5">
-      <c r="B12" s="141" t="s">
+      <c r="B12" s="147" t="s">
         <v>138</v>
       </c>
       <c r="C12" s="20" t="s">
@@ -4760,7 +4766,7 @@
       <c r="E12" s="17"/>
     </row>
     <row r="13" spans="2:5" ht="46.5" customHeight="1">
-      <c r="B13" s="141"/>
+      <c r="B13" s="147"/>
       <c r="C13" s="22"/>
       <c r="D13" s="23" t="s">
         <v>141</v>
@@ -4768,7 +4774,7 @@
       <c r="E13" s="17"/>
     </row>
     <row r="14" spans="2:5" ht="72" customHeight="1">
-      <c r="B14" s="141"/>
+      <c r="B14" s="147"/>
       <c r="C14" s="24" t="s">
         <v>142</v>
       </c>
@@ -4778,25 +4784,25 @@
       <c r="E14" s="17"/>
     </row>
     <row r="15" spans="2:5">
-      <c r="B15" s="141" t="s">
+      <c r="B15" s="147" t="s">
         <v>202</v>
       </c>
-      <c r="C15" s="146" t="s">
+      <c r="C15" s="153" t="s">
         <v>203</v>
       </c>
-      <c r="D15" s="146"/>
+      <c r="D15" s="153"/>
     </row>
     <row r="16" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B16" s="141"/>
-      <c r="C16" s="147" t="s">
+      <c r="B16" s="147"/>
+      <c r="C16" s="154" t="s">
         <v>204</v>
       </c>
-      <c r="D16" s="147"/>
+      <c r="D16" s="154"/>
     </row>
     <row r="17" spans="2:4">
-      <c r="B17" s="141"/>
-      <c r="C17" s="148"/>
-      <c r="D17" s="148"/>
+      <c r="B17" s="147"/>
+      <c r="C17" s="155"/>
+      <c r="D17" s="155"/>
     </row>
     <row r="18" spans="2:4">
       <c r="B18" s="26" t="s">
@@ -4891,6 +4897,11 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="12">
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C17:D17"/>
@@ -4898,11 +4909,6 @@
     <mergeCell ref="B12:B14"/>
     <mergeCell ref="B15:B17"/>
     <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
   </mergeCells>
   <pageMargins left="0.69930555555555551" right="0.69930555555555551" top="0.75" bottom="0.75" header="0.51111111111111107" footer="0.51111111111111107"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -4952,46 +4958,46 @@
       <c r="B7" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="C7" s="150" t="s">
+      <c r="C7" s="160" t="s">
         <v>216</v>
       </c>
-      <c r="D7" s="131"/>
+      <c r="D7" s="148"/>
     </row>
     <row r="8" spans="2:4" ht="23.25" customHeight="1">
       <c r="B8" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="C8" s="151" t="s">
+      <c r="C8" s="161" t="s">
         <v>218</v>
       </c>
-      <c r="D8" s="152"/>
+      <c r="D8" s="162"/>
     </row>
     <row r="9" spans="2:4" ht="23.25" customHeight="1">
       <c r="B9" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="C9" s="156" t="s">
+      <c r="C9" s="163" t="s">
         <v>233</v>
       </c>
-      <c r="D9" s="152"/>
+      <c r="D9" s="162"/>
     </row>
     <row r="10" spans="2:4" ht="31.5" customHeight="1">
       <c r="B10" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="C10" s="153" t="s">
+      <c r="C10" s="164" t="s">
         <v>222</v>
       </c>
-      <c r="D10" s="154"/>
+      <c r="D10" s="165"/>
     </row>
     <row r="11" spans="2:4" ht="33.6" customHeight="1">
       <c r="B11" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="C11" s="157" t="s">
+      <c r="C11" s="166" t="s">
         <v>234</v>
       </c>
-      <c r="D11" s="155"/>
+      <c r="D11" s="167"/>
     </row>
   </sheetData>
   <customSheetViews>
